--- a/Risk Driver Simulation/Input/Curves/TestYieldCurve.xlsx
+++ b/Risk Driver Simulation/Input/Curves/TestYieldCurve.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JQ228YH\Documents\CVA Tool Python\CVA-Tool\Risk Driver Simulation\Input\Curves\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38117995-5029-4EBF-B0AF-2948CE9885F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="9540"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -71,6 +77,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -118,7 +127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -151,9 +160,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -186,6 +212,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -361,16 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -378,7 +421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -386,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -394,7 +437,7 @@
         <v>-5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -402,7 +445,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -410,7 +453,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -418,7 +461,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -426,7 +469,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10</v>
       </c>
@@ -434,7 +477,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -448,24 +491,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
